--- a/cross-check-value-office-scripts-copilot.xlsx
+++ b/cross-check-value-office-scripts-copilot.xlsx
@@ -1,34 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29823"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EEA88B-627A-4EB2-876F-7D55E92F86C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Practice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Acme Co</t>
+  </si>
+  <si>
+    <t>Widget A</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Bravo Inc</t>
+  </si>
+  <si>
+    <t>Gadget X</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Delta LLC</t>
+  </si>
+  <si>
+    <t>Widget B</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Everest Ltd</t>
+  </si>
+  <si>
+    <t>Service Plan</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Gadget Y</t>
+  </si>
+  <si>
+    <t>Zenith Corp</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Total sales</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,82 +169,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C49FA718-E617-4BCF-81D9-3AF1A0376E90}" name="sales" displayName="sales" ref="A1:J16" totalsRowShown="0">
+  <autoFilter ref="A1:J16" xr:uid="{C49FA718-E617-4BCF-81D9-3AF1A0376E90}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{44F4D3A8-4AFC-4037-A5D4-07EC144A16EB}" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E0B97897-ABCB-4870-BF81-6473972EF2B0}" name="OrderID"/>
+    <tableColumn id="3" xr3:uid="{A0F51547-07FC-45D2-8EB9-10C09B3CD836}" name="Salesperson"/>
+    <tableColumn id="4" xr3:uid="{B2D6AA81-086F-40A7-8B4E-42E2616817BD}" name="Region"/>
+    <tableColumn id="5" xr3:uid="{AD6F7E9B-82FA-4D6A-ABC1-A2DEC6F0F6E6}" name="Customer"/>
+    <tableColumn id="6" xr3:uid="{1A58A27D-1998-4B8C-960E-EE7BC1039C0F}" name="Product"/>
+    <tableColumn id="7" xr3:uid="{F566F9A8-86B3-481A-860F-9673F1A22257}" name="Category"/>
+    <tableColumn id="8" xr3:uid="{5B6E7A19-F94A-48A1-A883-CF6621F1A550}" name="Units"/>
+    <tableColumn id="9" xr3:uid="{0C0FDF16-441E-4E17-8255-9063D581BCFC}" name="UnitPrice"/>
+    <tableColumn id="10" xr3:uid="{DC6AFC6A-9650-4267-849D-B5AD09FB56CB}" name="Sales" dataDxfId="0">
+      <calculatedColumnFormula>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,58 +502,583 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADFE932-2C78-456C-A30B-D3A0A5A022C3}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="1"/>
+    <col min="2" max="2" width="8.9375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2">
+        <f>SUM(sales[Sales])</f>
+        <v>3760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.05859375" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="10.3515625" customWidth="1"/>
+    <col min="7" max="7" width="9.76171875" customWidth="1"/>
+    <col min="9" max="9" width="10.05859375" customWidth="1"/>
+    <col min="10" max="10" width="7.05859375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>46025</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>46026</v>
+      </c>
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B4">
+        <v>1003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B5">
+        <v>1004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>150</v>
+      </c>
+      <c r="J6">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>46032</v>
+      </c>
+      <c r="B9">
+        <v>1008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>150</v>
+      </c>
+      <c r="J9">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>46033</v>
+      </c>
+      <c r="B10">
+        <v>1009</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B11">
+        <v>1010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B12">
+        <v>1011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
         <v>200</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <f>SUM(A2:A5)</f>
-        <v/>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B13">
+        <v>1012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+      <c r="J13">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B14">
+        <v>1013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>75</v>
+      </c>
+      <c r="J14">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B15">
+        <v>1014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
+        <v>46039</v>
+      </c>
+      <c r="B16">
+        <v>1015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <f>sales[[#This Row],[Units]] * sales[[#This Row],[UnitPrice]]</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>